--- a/Temp to Resistance trendline.xlsx
+++ b/Temp to Resistance trendline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/134fbaf0a979f947/UCL/ENGF0001/CSEEE bioreactor/BioReactorCode/Heating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BFF98E5B-AD44-4B33-9B69-A6EC360F3E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7DCEA21-36B7-4C78-80F8-6E9BB8F022FF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{BFF98E5B-AD44-4B33-9B69-A6EC360F3E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57EDB4D8-5A1A-4EDD-8B8A-C987377486D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1AFDC541-D098-4835-8DFB-3DC9B961EE0A}"/>
   </bookViews>
@@ -151,11 +151,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>resistance</c:v>
+                  <c:v>temp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -193,13 +193,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.6091900332705075E-2"/>
-                  <c:y val="4.9777631962671333E-3"/>
+                  <c:x val="-0.10204024496937883"/>
+                  <c:y val="3.9883347914843978E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -232,113 +246,67 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.327411845030447E-2"/>
-                  <c:y val="0.20729549431321084"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sk-SK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>7929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8859</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8719</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8314</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
@@ -397,71 +365,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>7929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7805</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7593</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7358</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7159</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6858</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6569</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6392</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6219</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9074</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8964</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8859</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8719</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8446</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8314</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8F4-4685-A24C-143D21FB04A6}"/>
+              <c16:uniqueId val="{00000000-B859-41DB-A4A2-79594AF1CBD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -473,11 +381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1344565343"/>
-        <c:axId val="1344567263"/>
+        <c:axId val="44239456"/>
+        <c:axId val="44243296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1344565343"/>
+        <c:axId val="44239456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,12 +442,12 @@
             <a:endParaRPr lang="sk-SK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1344567263"/>
+        <c:crossAx val="44243296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1344567263"/>
+        <c:axId val="44243296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +504,7 @@
             <a:endParaRPr lang="sk-SK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1344565343"/>
+        <c:crossAx val="44239456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1212,23 +1120,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3CD861-B770-7391-512D-DD4F5471D673}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E32984-6383-DA61-5B41-BC2C5B1F88E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,6 +1155,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,156 +1478,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38ACD85-2991-46FE-900B-169FDCD49D17}">
-  <dimension ref="B1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection sqref="A1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7929</v>
+      </c>
       <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>7929</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7805</v>
+      </c>
       <c r="B3">
         <v>30.7</v>
       </c>
-      <c r="C3">
-        <v>7805</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7593</v>
+      </c>
       <c r="B4">
         <v>31.5</v>
       </c>
-      <c r="C4">
-        <v>7593</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7358</v>
+      </c>
       <c r="B5">
         <v>31.8</v>
       </c>
-      <c r="C5">
-        <v>7358</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7159</v>
+      </c>
       <c r="B6">
         <v>32.200000000000003</v>
       </c>
-      <c r="C6">
-        <v>7159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6858</v>
+      </c>
       <c r="B7">
         <v>33.4</v>
       </c>
-      <c r="C7">
-        <v>6858</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6569</v>
+      </c>
       <c r="B8">
         <v>34.4</v>
       </c>
-      <c r="C8">
-        <v>6569</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6392</v>
+      </c>
       <c r="B9">
         <v>35.1</v>
       </c>
-      <c r="C9">
-        <v>6392</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6219</v>
+      </c>
       <c r="B10">
         <v>35.4</v>
       </c>
-      <c r="C10">
-        <v>6219</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9184</v>
+      </c>
       <c r="B11">
         <v>25.9</v>
       </c>
-      <c r="C11">
-        <v>9184</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9074</v>
+      </c>
       <c r="B12">
         <v>26.2</v>
       </c>
-      <c r="C12">
-        <v>9074</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8964</v>
+      </c>
       <c r="B13">
         <v>28.6</v>
       </c>
-      <c r="C13">
-        <v>8964</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8859</v>
+      </c>
       <c r="B14">
         <v>27.7</v>
       </c>
-      <c r="C14">
-        <v>8859</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8719</v>
+      </c>
       <c r="B15">
         <v>28.3</v>
       </c>
-      <c r="C15">
-        <v>8719</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8446</v>
+      </c>
       <c r="B16">
         <v>29.2</v>
       </c>
-      <c r="C16">
-        <v>8446</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8314</v>
+      </c>
       <c r="B17">
         <v>29.6</v>
       </c>
-      <c r="C17">
-        <v>8314</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8183</v>
+      </c>
       <c r="B18">
         <v>29.8</v>
-      </c>
-      <c r="C18">
-        <v>8183</v>
       </c>
     </row>
   </sheetData>
